--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Alcam-L1cam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Alcam-L1cam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,19 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Alcam</t>
+  </si>
+  <si>
+    <t>L1cam</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Alcam</t>
-  </si>
-  <si>
-    <t>L1cam</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>62.12557999999999</v>
+        <v>0.5683613333333334</v>
       </c>
       <c r="H2">
-        <v>186.37674</v>
+        <v>1.705084</v>
       </c>
       <c r="I2">
-        <v>0.9736910227596813</v>
+        <v>0.4361027177196302</v>
       </c>
       <c r="J2">
-        <v>0.9736910227596813</v>
+        <v>0.4361027177196302</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="N2">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="O2">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="P2">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="Q2">
-        <v>1225.168478127513</v>
+        <v>2.094699672529333</v>
       </c>
       <c r="R2">
-        <v>11026.51630314762</v>
+        <v>18.852297052764</v>
       </c>
       <c r="S2">
-        <v>0.7805311788873125</v>
+        <v>0.1563703745632743</v>
       </c>
       <c r="T2">
-        <v>0.7805311788873126</v>
+        <v>0.1563703745632743</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>62.12557999999999</v>
+        <v>0.5683613333333334</v>
       </c>
       <c r="H3">
-        <v>186.37674</v>
+        <v>1.705084</v>
       </c>
       <c r="I3">
-        <v>0.9736910227596813</v>
+        <v>0.4361027177196302</v>
       </c>
       <c r="J3">
-        <v>0.9736910227596813</v>
+        <v>0.4361027177196302</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>0.297477</v>
       </c>
       <c r="O3">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="P3">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="Q3">
-        <v>6.160310387219999</v>
+        <v>0.056358141452</v>
       </c>
       <c r="R3">
-        <v>55.44279348497999</v>
+        <v>0.507223273068</v>
       </c>
       <c r="S3">
-        <v>0.003924614789467463</v>
+        <v>0.004207163348575845</v>
       </c>
       <c r="T3">
-        <v>0.003924614789467464</v>
+        <v>0.004207163348575845</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>62.12557999999999</v>
+        <v>0.5683613333333334</v>
       </c>
       <c r="H4">
-        <v>186.37674</v>
+        <v>1.705084</v>
       </c>
       <c r="I4">
-        <v>0.9736910227596813</v>
+        <v>0.4361027177196302</v>
       </c>
       <c r="J4">
-        <v>0.9736910227596813</v>
+        <v>0.4361027177196302</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="N4">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="O4">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="P4">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="Q4">
-        <v>297.0349473471599</v>
+        <v>3.690868590222667</v>
       </c>
       <c r="R4">
-        <v>2673.314526124439</v>
+        <v>33.217817312004</v>
       </c>
       <c r="S4">
-        <v>0.1892352290829013</v>
+        <v>0.2755251798077801</v>
       </c>
       <c r="T4">
-        <v>0.1892352290829014</v>
+        <v>0.2755251798077801</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,14 +705,14 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5683613333333334</v>
+        <v>0.7349126666666667</v>
       </c>
       <c r="H5">
-        <v>1.705084</v>
+        <v>2.204738</v>
       </c>
       <c r="I5">
-        <v>0.008907897969731463</v>
+        <v>0.5638972822803697</v>
       </c>
       <c r="J5">
-        <v>0.008907897969731463</v>
+        <v>0.5638972822803697</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.72083766666667</v>
+        <v>3.685507</v>
       </c>
       <c r="N5">
-        <v>59.162513</v>
+        <v>11.056521</v>
       </c>
       <c r="O5">
-        <v>0.8016210077351786</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="P5">
-        <v>0.8016210077351787</v>
+        <v>0.3585631737883472</v>
       </c>
       <c r="Q5">
-        <v>11.20856159067689</v>
+        <v>2.708525777388667</v>
       </c>
       <c r="R5">
-        <v>100.877054316092</v>
+        <v>24.376731996498</v>
       </c>
       <c r="S5">
-        <v>0.007140758147298287</v>
+        <v>0.2021927992250729</v>
       </c>
       <c r="T5">
-        <v>0.007140758147298289</v>
+        <v>0.2021927992250729</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,13 +767,13 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5683613333333334</v>
+        <v>0.7349126666666667</v>
       </c>
       <c r="H6">
-        <v>1.705084</v>
+        <v>2.204738</v>
       </c>
       <c r="I6">
-        <v>0.008907897969731463</v>
+        <v>0.5638972822803697</v>
       </c>
       <c r="J6">
-        <v>0.008907897969731463</v>
+        <v>0.5638972822803697</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,22 +806,22 @@
         <v>0.297477</v>
       </c>
       <c r="O6">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="P6">
-        <v>0.004030657259573097</v>
+        <v>0.009647184430711629</v>
       </c>
       <c r="Q6">
-        <v>0.056358141452</v>
+        <v>0.072873205114</v>
       </c>
       <c r="R6">
-        <v>0.507223273068</v>
+        <v>0.655858846026</v>
       </c>
       <c r="S6">
-        <v>3.590468361923457E-05</v>
+        <v>0.005440021082135783</v>
       </c>
       <c r="T6">
-        <v>3.590468361923458E-05</v>
+        <v>0.005440021082135783</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +829,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5683613333333334</v>
+        <v>0.7349126666666667</v>
       </c>
       <c r="H7">
-        <v>1.705084</v>
+        <v>2.204738</v>
       </c>
       <c r="I7">
-        <v>0.008907897969731463</v>
+        <v>0.5638972822803697</v>
       </c>
       <c r="J7">
-        <v>0.008907897969731463</v>
+        <v>0.5638972822803697</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,214 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.781202</v>
+        <v>6.493877</v>
       </c>
       <c r="N7">
-        <v>14.343606</v>
+        <v>19.481631</v>
       </c>
       <c r="O7">
-        <v>0.1943483350052482</v>
+        <v>0.6317896417809412</v>
       </c>
       <c r="P7">
-        <v>0.1943483350052483</v>
+        <v>0.6317896417809411</v>
       </c>
       <c r="Q7">
-        <v>2.717450343656</v>
+        <v>4.772432463075334</v>
       </c>
       <c r="R7">
-        <v>24.457053092904</v>
+        <v>42.951892167678</v>
       </c>
       <c r="S7">
-        <v>0.001731235138813941</v>
+        <v>0.3562644619731611</v>
       </c>
       <c r="T7">
-        <v>0.001731235138813941</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.110262</v>
-      </c>
-      <c r="H8">
-        <v>3.330786</v>
-      </c>
-      <c r="I8">
-        <v>0.01740107927058724</v>
-      </c>
-      <c r="J8">
-        <v>0.01740107927058724</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>19.72083766666667</v>
-      </c>
-      <c r="N8">
-        <v>59.162513</v>
-      </c>
-      <c r="O8">
-        <v>0.8016210077351786</v>
-      </c>
-      <c r="P8">
-        <v>0.8016210077351787</v>
-      </c>
-      <c r="Q8">
-        <v>21.89529666946867</v>
-      </c>
-      <c r="R8">
-        <v>197.057670025218</v>
-      </c>
-      <c r="S8">
-        <v>0.01394907070056787</v>
-      </c>
-      <c r="T8">
-        <v>0.01394907070056788</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.110262</v>
-      </c>
-      <c r="H9">
-        <v>3.330786</v>
-      </c>
-      <c r="I9">
-        <v>0.01740107927058724</v>
-      </c>
-      <c r="J9">
-        <v>0.01740107927058724</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.099159</v>
-      </c>
-      <c r="N9">
-        <v>0.297477</v>
-      </c>
-      <c r="O9">
-        <v>0.004030657259573097</v>
-      </c>
-      <c r="P9">
-        <v>0.004030657259573097</v>
-      </c>
-      <c r="Q9">
-        <v>0.110092469658</v>
-      </c>
-      <c r="R9">
-        <v>0.990832226922</v>
-      </c>
-      <c r="S9">
-        <v>7.01377864863994E-05</v>
-      </c>
-      <c r="T9">
-        <v>7.013778648639941E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1.110262</v>
-      </c>
-      <c r="H10">
-        <v>3.330786</v>
-      </c>
-      <c r="I10">
-        <v>0.01740107927058724</v>
-      </c>
-      <c r="J10">
-        <v>0.01740107927058724</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>4.781202</v>
-      </c>
-      <c r="N10">
-        <v>14.343606</v>
-      </c>
-      <c r="O10">
-        <v>0.1943483350052482</v>
-      </c>
-      <c r="P10">
-        <v>0.1943483350052483</v>
-      </c>
-      <c r="Q10">
-        <v>5.308386894924</v>
-      </c>
-      <c r="R10">
-        <v>47.775482054316</v>
-      </c>
-      <c r="S10">
-        <v>0.00338187078353297</v>
-      </c>
-      <c r="T10">
-        <v>0.003381870783532971</v>
+        <v>0.356264461973161</v>
       </c>
     </row>
   </sheetData>
